--- a/Schem/Project Outputs for Universal driver v2/Universal driver v2.xlsx
+++ b/Schem/Project Outputs for Universal driver v2/Universal driver v2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kicads Schem\GP2Y0A02YK0Fv2\Schem\Project Outputs for Universal driver v2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Radio\Jobe\GP2Y0A02YK0Fv2\Schem\Project Outputs for Universal driver v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD6056C-D4D9-4255-8E73-5B49C34C551F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB31C5A7-CA00-4C25-BFA7-8F59B739D764}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EF7EE4A1-6825-4C7D-8AC4-1CD587449F52}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EF7EE4A1-6825-4C7D-8AC4-1CD587449F52}"/>
   </bookViews>
   <sheets>
     <sheet name="Universal driver v2" sheetId="1" r:id="rId1"/>
@@ -306,7 +306,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,6 +322,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -353,7 +359,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -369,6 +375,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -687,18 +696,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="19.7109375" customWidth="1"/>
+    <col min="1" max="6" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -718,7 +727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -735,9 +744,16 @@
       <c r="F2" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <f>G2*F2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -755,8 +771,15 @@
       <c r="F3" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H24" si="0">G3*F3</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>82</v>
       </c>
@@ -775,8 +798,15 @@
       <c r="F4" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
@@ -793,8 +823,15 @@
       <c r="F5" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
@@ -813,8 +850,15 @@
       <c r="F6" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
@@ -833,8 +877,15 @@
       <c r="F7" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
@@ -853,8 +904,15 @@
       <c r="F8" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>30</v>
       </c>
@@ -873,8 +931,15 @@
       <c r="F9" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>81</v>
       </c>
@@ -893,8 +958,11 @@
       <c r="F10" s="6" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>35</v>
       </c>
@@ -911,8 +979,15 @@
       <c r="F11" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>39</v>
       </c>
@@ -931,8 +1006,15 @@
       <c r="F12" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>81</v>
       </c>
@@ -951,8 +1033,11 @@
       <c r="F13" s="6" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>44</v>
       </c>
@@ -971,8 +1056,15 @@
       <c r="F14" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>48</v>
       </c>
@@ -991,8 +1083,15 @@
       <c r="F15" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>52</v>
       </c>
@@ -1009,9 +1108,16 @@
       <c r="F16" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
         <v>56</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1029,8 +1135,15 @@
       <c r="F17" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>58</v>
       </c>
@@ -1049,8 +1162,15 @@
       <c r="F18" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>60</v>
       </c>
@@ -1069,8 +1189,15 @@
       <c r="F19" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>62</v>
       </c>
@@ -1087,8 +1214,15 @@
       <c r="F20" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>64</v>
       </c>
@@ -1107,8 +1241,15 @@
       <c r="F21" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>68</v>
       </c>
@@ -1127,8 +1268,15 @@
       <c r="F22" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>48</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>72</v>
       </c>
@@ -1147,8 +1295,15 @@
       <c r="F23" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>76</v>
       </c>
@@ -1166,6 +1321,14 @@
       </c>
       <c r="F24" s="4">
         <v>1</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f>SUM(H2:H24)*10</f>
+        <v>1730</v>
       </c>
     </row>
   </sheetData>
